--- a/仕様/仕様書/レッツキャラ再構築！出せるだけ出した案.xlsx
+++ b/仕様/仕様書/レッツキャラ再構築！出せるだけ出した案.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="キャラ案" sheetId="1" r:id="rId1"/>
-    <sheet name="候補" sheetId="2" r:id="rId2"/>
+    <sheet name="確定" sheetId="3" r:id="rId1"/>
+    <sheet name="キャラ案" sheetId="1" r:id="rId2"/>
+    <sheet name="候補" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="155">
   <si>
     <t>番号</t>
     <phoneticPr fontId="1"/>
@@ -159,10 +160,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>近距離攻撃中心のバランス型</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ギターを持ったツインテアイドル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -195,10 +192,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>運任せのスリリング攻撃型</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全員のコインをランダムに入れ替える</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -304,10 +297,6 @@
   </si>
   <si>
     <t>草(ある意味ね)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>冒険家　ローレンス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -570,10 +559,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>うちわ使い　カエデ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コインをあらぬところへ吹っ飛ばし妨害</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -656,6 +641,70 @@
   </si>
   <si>
     <t>コレクトの色違い　邪悪な感じ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中川</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大塚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｂ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｓ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｂ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>導入確定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補欠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今のプリンセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近距離攻撃中心のバランス型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うちわ使い　カエデ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運任せのスリリング攻撃型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冒険家　ローレンス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -679,7 +728,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,8 +741,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -874,11 +947,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -935,6 +1043,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1236,10 +1401,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="34.625" customWidth="1"/>
+    <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="5" max="5" width="26.375" customWidth="1"/>
+    <col min="6" max="6" width="33.125" customWidth="1"/>
+    <col min="7" max="7" width="32.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <v>15</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:7" ht="162" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <v>19</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="29">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="24">
+        <v>7</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A10" s="28">
+        <v>17</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1253,7 +1657,7 @@
     <col min="7" max="7" width="35.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1275,537 +1679,797 @@
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="9">
+      <c r="H1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
+      <c r="H2" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
+      <c r="H3" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="34">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="37" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+      <c r="H4" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="24">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
+      <c r="H5" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="H6" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="G7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="H7" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="D8" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="E8" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="F8" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="G8" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="H8" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="G9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="H9" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="34">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="C10" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="D10" s="36" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="E10" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="F10" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="G10" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="H10" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="F11" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="G11" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="H11" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="34">
+        <v>11</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="C12" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="D12" s="36" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="E12" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="G12" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="H12" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="34">
+        <v>12</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="17" t="s">
+      <c r="D13" s="36" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="E13" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="F13" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="H13" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="34">
+        <v>13</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="C14" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
+      <c r="F14" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="G14" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="H14" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A15" s="34">
+        <v>14</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="C15" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="D15" s="36" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="E15" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="F15" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="G15" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="H15" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="12">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="17" t="s">
+      <c r="G16" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="H16" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="34">
+        <v>16</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="E17" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="F17" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="G17" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="H17" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="28">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="E18" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="12">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="G18" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="H18" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="34">
+        <v>18</v>
+      </c>
+      <c r="B19" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="C19" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="17" t="s">
+      <c r="E19" s="37" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="F19" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="G19" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="H19" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="24">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="C20" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="D20" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="12">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="F20" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="17" t="s">
+      <c r="H20" s="22" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I20" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
+        <v>4</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="8">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="8">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="8">
+        <v>2</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>1</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="12">
+        <v>15</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+    </row>
+    <row r="30" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="12">
+        <v>19</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="29">
+        <v>5</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8">
+      <c r="C31" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8">
+      <c r="E31" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8">
+      <c r="F31" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8">
+      <c r="G31" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8">
-        <v>36</v>
+    <row r="32" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="24">
+        <v>7</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="28">
+        <v>17</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A29:G29"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
@@ -1823,10 +2487,10 @@
     <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20"/>
       <c r="B1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1834,10 +2498,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1845,10 +2509,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1856,10 +2520,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1867,10 +2531,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -1878,10 +2542,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -1889,10 +2553,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -1900,10 +2564,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -1911,10 +2575,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1922,10 +2586,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -1933,10 +2597,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
